--- a/biology/Médecine/Valve_pulmonaire/Valve_pulmonaire.xlsx
+++ b/biology/Médecine/Valve_pulmonaire/Valve_pulmonaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La valve pulmonaire est une valve artérielle. Elle est traversée par un sang non oxygéné sortant du ventricule droit et allant vers le poumon en passant par l'artère pulmonaire, pour y subir l'hématose.
 Cette valve est tricuspide dans la mesure où elle est composée de trois valvules, qui, sur une coupe longitudinale de l'artère pulmonaire, se présente sous forme de 3 « nids de pigeon ». 
 Elle n'est pas sus-jacent d'un appareil sous valvulaire qui est caractéristique des valves auriculo-ventriculaire (ou atrio-ventriculaire).
-Certains patients présentent une malformation congénitale dans laquelle la valve pulmonaire est ou bien absente, ou bien insuffisamment formée[1].
+Certains patients présentent une malformation congénitale dans laquelle la valve pulmonaire est ou bien absente, ou bien insuffisamment formée.
 </t>
         </is>
       </c>
